--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C88E9F-863E-4F7E-A91E-1032A349E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038CF2C-D659-4742-997A-05953DAAB5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="3413" windowWidth="13448" windowHeight="11332" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15270" yWindow="0" windowWidth="13448" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -462,6 +462,10 @@
   </si>
   <si>
     <t>05 06 pymysql</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_crawling</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -946,6 +950,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,12 +981,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1198,7 +1202,7 @@
   <dimension ref="A1:W998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1220,21 +1224,21 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1308,10 +1312,10 @@
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="49" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1320,7 +1324,7 @@
       <c r="K3" s="6">
         <v>56</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="46">
         <v>112</v>
       </c>
       <c r="M3" s="1"/>
@@ -1351,15 +1355,15 @@
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="6">
         <v>24</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1388,15 +1392,15 @@
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="6">
         <v>16</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1425,15 +1429,15 @@
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6">
         <v>16</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1462,8 +1466,8 @@
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="47" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1472,7 +1476,7 @@
       <c r="K7" s="6">
         <v>32</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="46">
         <v>184</v>
       </c>
       <c r="M7" s="1"/>
@@ -1503,15 +1507,15 @@
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="6">
         <v>56</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1542,15 +1546,15 @@
         <v>64</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6">
         <v>64</v>
       </c>
-      <c r="L9" s="45"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1581,15 +1585,15 @@
         <v>65</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="6">
         <v>16</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1620,15 +1624,15 @@
         <v>70</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="6">
         <v>16</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1659,8 +1663,8 @@
         <v>69</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="47" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="49" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1669,7 +1673,7 @@
       <c r="K12" s="5">
         <v>32</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="46">
         <v>232</v>
       </c>
       <c r="M12" s="1"/>
@@ -1702,15 +1706,15 @@
         <v>67</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="6">
         <v>40</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1741,15 +1745,15 @@
         <v>67</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K14" s="6">
         <v>32</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1780,15 +1784,15 @@
         <v>67</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="6">
         <v>32</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1819,15 +1823,15 @@
         <v>68</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="6">
         <v>32</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1858,15 +1862,15 @@
         <v>83</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="6">
         <v>48</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1893,17 +1897,19 @@
       <c r="E18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="6">
         <v>16</v>
       </c>
-      <c r="L18" s="46"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1932,8 +1938,8 @@
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="47" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="49" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -1942,7 +1948,7 @@
       <c r="K19" s="6">
         <v>16</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="46">
         <v>128</v>
       </c>
       <c r="M19" s="1"/>
@@ -1973,15 +1979,15 @@
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="6">
         <v>8</v>
       </c>
-      <c r="L20" s="45"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2010,15 +2016,15 @@
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="6">
         <v>24</v>
       </c>
-      <c r="L21" s="45"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2047,15 +2053,15 @@
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="6">
         <v>40</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2084,15 +2090,15 @@
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="5">
         <v>24</v>
       </c>
-      <c r="L23" s="45"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2121,15 +2127,15 @@
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="5">
         <v>16</v>
       </c>
-      <c r="L24" s="46"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -27283,35 +27289,35 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="14"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="43"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
@@ -27988,15 +27994,15 @@
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="Y18" s="14"/>
@@ -28398,35 +28404,35 @@
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="49" t="s">
+      <c r="J36" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="49" t="s">
+      <c r="R36" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="43"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="45"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
@@ -58563,7 +58569,7 @@
       <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="42">
         <v>45951</v>
       </c>
     </row>
@@ -58571,7 +58577,7 @@
       <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="42">
         <v>45951</v>
       </c>
     </row>
@@ -58606,12 +58612,12 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.899999999999999">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="41" t="s">
         <v>82</v>
       </c>
     </row>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038CF2C-D659-4742-997A-05953DAAB5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D7967B-1A22-4EEE-831A-3B5521E3FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="0" windowWidth="13448" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14333" yWindow="0" windowWidth="14385" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="86">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -465,7 +465,11 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>web_crawling</t>
+    <t>web_crawling 01, 02</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_crawling 03</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1201,8 +1205,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1936,7 +1940,9 @@
       <c r="E19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>85</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="47"/>
       <c r="I19" s="49" t="s">

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D7967B-1A22-4EEE-831A-3B5521E3FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21AD59-8DC1-4928-8511-3F548340CA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14333" yWindow="0" windowWidth="14385" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12893" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="91">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -470,6 +470,69 @@
   </si>
   <si>
     <t>web_crawling 03</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위프로젝트</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas_Series</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas_DataFrame</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pandas_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정렬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집계</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pandas_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합치기</t>
+    </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1205,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1983,7 +2046,9 @@
       <c r="E20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
@@ -2020,7 +2085,9 @@
       <c r="E21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -2057,7 +2124,9 @@
       <c r="E22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36" t="s">
+        <v>88</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -2094,7 +2163,9 @@
       <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -2131,7 +2202,9 @@
       <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
@@ -2244,6 +2317,7 @@
       <c r="E27" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="F27" s="36"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2276,6 +2350,7 @@
       <c r="E28" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F28" s="36"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -27224,7 +27299,7 @@
   </sheetPr>
   <dimension ref="A1:AC999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -58552,7 +58627,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -58630,5 +58705,6 @@
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21AD59-8DC1-4928-8511-3F548340CA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E369722-0266-46EB-936A-1C353B9CF092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12893" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12893" yWindow="3413" windowWidth="15825" windowHeight="11332" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -1268,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E369722-0266-46EB-936A-1C353B9CF092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA517B8-2FA6-43F2-9A25-F97FF203E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12893" yWindow="3413" windowWidth="15825" windowHeight="11332" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -520,6 +520,10 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
+    <t>matplotlib,pandas</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>pandas_</t>
     </r>
@@ -532,6 +536,15 @@
         <charset val="129"/>
       </rPr>
       <t>합치기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, matplotlib</t>
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1268,8 +1281,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1279,7 +1292,7 @@
     <col min="3" max="3" width="9.59765625" customWidth="1"/>
     <col min="4" max="4" width="30.3984375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.9296875" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.1328125" customWidth="1"/>
     <col min="8" max="8" width="12.86328125" customWidth="1"/>
     <col min="9" max="9" width="20.265625" customWidth="1"/>
@@ -2203,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="48"/>
@@ -2241,7 +2254,9 @@
       <c r="E25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="5" t="s">
         <v>35</v>
@@ -58627,7 +58642,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA517B8-2FA6-43F2-9A25-F97FF203E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A7095F-2E1A-45BD-A615-ADF50338DF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-158" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
     <sheet name="캘린더" sheetId="2" r:id="rId2"/>
     <sheet name="교재" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="OzZo/rY39/NlKpFdqmt/RKFPkFZwzyAvCME4UjFTlSI="/>
     </ext>
@@ -26,8 +37,58 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{0EC20A30-BF75-4C0B-8E23-4F430A633F23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numpy
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{CFB85BF6-B3CF-4B05-911C-7A2276E88DC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pytorch
+tensorflow</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -548,6 +609,10 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년 &quot;mmmm&quot; &quot;d&quot;일 &quot;dddd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +810,19 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1275,14 +1353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2299,7 +2377,9 @@
       <c r="E26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -27304,6 +27384,7 @@
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A7095F-2E1A-45BD-A615-ADF50338DF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B133100C-840F-4C6D-94CB-AD1F178E3803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-158" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="96">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -613,6 +613,73 @@
     <t>numpy</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(pandas)</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머신러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(numpy)</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy, sklearn</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년 &quot;mmmm&quot; &quot;d&quot;일 &quot;dddd"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,6 +891,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -994,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1220,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1359,7 +1443,7 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2013,8 +2097,8 @@
       <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
+      <c r="E17" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>83</v>
@@ -2173,8 +2257,8 @@
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>19</v>
+      <c r="E21" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>87</v>
@@ -2412,7 +2496,9 @@
       <c r="E27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B133100C-840F-4C6D-94CB-AD1F178E3803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14464146-8162-4E0B-86B3-F0653A7443ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="3210" windowWidth="15825" windowHeight="11332" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -680,6 +680,22 @@
     <t>numpy, sklearn</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터셋분리</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1195,6 +1211,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1220,9 +1239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1443,8 +1459,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1466,21 +1482,21 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1554,10 +1570,10 @@
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1566,7 +1582,7 @@
       <c r="K3" s="6">
         <v>56</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="47">
         <v>112</v>
       </c>
       <c r="M3" s="1"/>
@@ -1597,15 +1613,15 @@
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="6">
         <v>24</v>
       </c>
-      <c r="L4" s="47"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1634,15 +1650,15 @@
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="6">
         <v>16</v>
       </c>
-      <c r="L5" s="47"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1671,15 +1687,15 @@
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6">
         <v>16</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1708,8 +1724,8 @@
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="49" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1718,7 +1734,7 @@
       <c r="K7" s="6">
         <v>32</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="47">
         <v>184</v>
       </c>
       <c r="M7" s="1"/>
@@ -1749,15 +1765,15 @@
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="6">
         <v>56</v>
       </c>
-      <c r="L8" s="47"/>
+      <c r="L8" s="48"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1788,15 +1804,15 @@
         <v>64</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6">
         <v>64</v>
       </c>
-      <c r="L9" s="47"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1827,15 +1843,15 @@
         <v>65</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="6">
         <v>16</v>
       </c>
-      <c r="L10" s="47"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1866,15 +1882,15 @@
         <v>70</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="6">
         <v>16</v>
       </c>
-      <c r="L11" s="48"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1905,8 +1921,8 @@
         <v>69</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="49" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="50" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1915,7 +1931,7 @@
       <c r="K12" s="5">
         <v>32</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="47">
         <v>232</v>
       </c>
       <c r="M12" s="1"/>
@@ -1948,15 +1964,15 @@
         <v>67</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="6">
         <v>40</v>
       </c>
-      <c r="L13" s="47"/>
+      <c r="L13" s="48"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1987,15 +2003,15 @@
         <v>67</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K14" s="6">
         <v>32</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2026,15 +2042,15 @@
         <v>67</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="6">
         <v>32</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2065,15 +2081,15 @@
         <v>68</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="6">
         <v>32</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2097,22 +2113,22 @@
       <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="43" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="6">
         <v>48</v>
       </c>
-      <c r="L17" s="47"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2143,15 +2159,15 @@
         <v>84</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="6">
         <v>16</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2182,8 +2198,8 @@
         <v>85</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="49" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="50" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -2192,7 +2208,7 @@
       <c r="K19" s="6">
         <v>16</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="47">
         <v>128</v>
       </c>
       <c r="M19" s="1"/>
@@ -2225,15 +2241,15 @@
         <v>86</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="6">
         <v>8</v>
       </c>
-      <c r="L20" s="47"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2257,22 +2273,22 @@
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="43" t="s">
         <v>94</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="6">
         <v>24</v>
       </c>
-      <c r="L21" s="47"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2303,15 +2319,15 @@
         <v>88</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="6">
         <v>40</v>
       </c>
-      <c r="L22" s="47"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2342,15 +2358,15 @@
         <v>89</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="5">
         <v>24</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2381,15 +2397,15 @@
         <v>91</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="5">
         <v>16</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2531,7 +2547,9 @@
       <c r="E28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36" t="s">
+        <v>96</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -27552,35 +27570,35 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="14"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
@@ -28257,15 +28275,15 @@
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="Y18" s="14"/>
@@ -28667,35 +28685,35 @@
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="51" t="s">
+      <c r="J36" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="46"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="51" t="s">
+      <c r="R36" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="46"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14464146-8162-4E0B-86B3-F0653A7443ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B7BBC-7A4E-4E53-B7B6-B166A9A6891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3210" windowWidth="15825" windowHeight="11332" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1222" yWindow="4147" windowWidth="15826" windowHeight="11333" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -53,8 +53,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">numpy
-</t>
+          <t>numpy
+sklearn</t>
         </r>
       </text>
     </comment>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="100">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -682,7 +682,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">03 </t>
+      <t>03</t>
     </r>
     <r>
       <rPr>
@@ -693,6 +693,110 @@
         <charset val="129"/>
       </rPr>
       <t>데이터셋분리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전처리</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평가지표</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 05</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>05 todo, 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과적합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1459,8 +1563,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2582,7 +2686,9 @@
       <c r="E29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36" t="s">
+        <v>97</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2615,7 +2721,9 @@
       <c r="E30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36" t="s">
+        <v>98</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2648,7 +2756,9 @@
       <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -58827,7 +58937,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B7BBC-7A4E-4E53-B7B6-B166A9A6891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47E7D9-269F-4703-8BE5-D6825368404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1222" yWindow="4147" windowWidth="15826" windowHeight="11333" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12278" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="102">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -798,6 +798,14 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 07SVM 08KNN 09</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 11 12</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1563,8 +1571,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2791,7 +2799,9 @@
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2824,7 +2834,9 @@
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47E7D9-269F-4703-8BE5-D6825368404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70047CD3-5011-4B4D-A655-9E6A7F8A6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12278" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="103">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -806,6 +806,22 @@
   </si>
   <si>
     <t>10 11 12</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13 14 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딥러닝</t>
+    </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +1588,7 @@
   <dimension ref="A1:W998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2869,7 +2885,9 @@
       <c r="E34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>102</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>

--- a/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
+++ b/manage/[커리큘럼] SK네트웍스 Family AI 캠프 21기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_repo\skn21\manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70047CD3-5011-4B4D-A655-9E6A7F8A6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F3CAAE-81AA-4FB1-941A-A4D3C2A1A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12278" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="0" windowWidth="15825" windowHeight="15563" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="커리큘럼" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="104">
   <si>
     <t xml:space="preserve"> SK네트웍스 Family AI 캠프 21기 커리큘럼</t>
   </si>
@@ -821,6 +821,22 @@
         <charset val="129"/>
       </rPr>
       <t>딥러닝</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첫번째딥러닝</t>
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1588,7 +1604,7 @@
   <dimension ref="A1:W998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2953,7 +2969,9 @@
       <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
